--- a/analysis/common-garden-allele-balancing/Genotyped and phenotyped plants at each common garden site 2018 and 2019.xlsx
+++ b/analysis/common-garden-allele-balancing/Genotyped and phenotyped plants at each common garden site 2018 and 2019.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
   <si>
     <t>BRKG</t>
   </si>
@@ -38,9 +39,6 @@
     <t>LINC</t>
   </si>
   <si>
-    <t>Plants with good SNP data and phenotypes</t>
-  </si>
-  <si>
     <t>Plants with phenotypes</t>
   </si>
   <si>
@@ -72,6 +70,18 @@
   </si>
   <si>
     <t>for 2019</t>
+  </si>
+  <si>
+    <t>Plants with good SNP data in 732g and phenotypes</t>
+  </si>
+  <si>
+    <t>Plants with SNP data in 630g &amp; phenotypes</t>
+  </si>
+  <si>
+    <t>doesn't include AP13</t>
+  </si>
+  <si>
+    <t>this is just AP13</t>
   </si>
 </sst>
 </file>
@@ -126,10 +136,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,26 +422,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="20.7109375" customWidth="1"/>
+    <col min="2" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>2018</v>
       </c>
@@ -443,19 +454,19 @@
       <c r="E2" s="1">
         <v>2019</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>377</v>
-      </c>
-      <c r="C3">
-        <v>234</v>
+      <c r="B3" s="3">
+        <v>407</v>
+      </c>
+      <c r="C3" s="3">
+        <v>253</v>
       </c>
       <c r="D3">
         <v>412</v>
@@ -463,49 +474,49 @@
       <c r="E3">
         <v>254</v>
       </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F12" si="0">B3-C3</f>
+        <v>154</v>
+      </c>
       <c r="G3">
-        <f>B3-C3</f>
-        <v>143</v>
-      </c>
-      <c r="H3">
-        <f>D3-E3</f>
+        <f t="shared" ref="G3:G12" si="1">D3-E3</f>
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>501</v>
-      </c>
-      <c r="C4">
-        <v>480</v>
+      <c r="B4" s="3">
+        <v>538</v>
+      </c>
+      <c r="C4" s="3">
+        <v>516</v>
       </c>
       <c r="D4">
         <v>544</v>
       </c>
       <c r="E4">
-        <v>516</v>
+        <v>517</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G12" si="0">B4-C4</f>
-        <v>21</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H12" si="1">D4-E4</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>245</v>
-      </c>
-      <c r="C5">
-        <v>163</v>
+      <c r="B5" s="3">
+        <v>271</v>
+      </c>
+      <c r="C5" s="3">
+        <v>184</v>
       </c>
       <c r="D5">
         <v>273</v>
@@ -513,49 +524,49 @@
       <c r="E5">
         <v>185</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="H5">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>275</v>
-      </c>
-      <c r="C6">
-        <v>267</v>
+      <c r="B6" s="3">
+        <v>432</v>
+      </c>
+      <c r="C6" s="3">
+        <v>261</v>
       </c>
       <c r="D6">
-        <v>305</v>
+        <v>437</v>
       </c>
       <c r="E6">
-        <v>286</v>
+        <v>262</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>171</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H6">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>547</v>
-      </c>
-      <c r="C7">
-        <v>462</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>584</v>
+      </c>
+      <c r="C7" s="3">
+        <v>495</v>
       </c>
       <c r="D7">
         <v>591</v>
@@ -563,24 +574,24 @@
       <c r="E7">
         <v>496</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="H7">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>433</v>
-      </c>
-      <c r="C8">
-        <v>419</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>464</v>
+      </c>
+      <c r="C8" s="3">
+        <v>450</v>
       </c>
       <c r="D8">
         <v>469</v>
@@ -588,360 +599,765 @@
       <c r="E8">
         <v>451</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="H8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>312</v>
-      </c>
-      <c r="C9">
-        <v>304</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>342</v>
+      </c>
+      <c r="C9" s="3">
+        <v>331</v>
       </c>
       <c r="D9">
         <v>346</v>
       </c>
       <c r="E9">
-        <v>331</v>
+        <v>332</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H9">
+      <c r="B10" s="3">
+        <v>383</v>
+      </c>
+      <c r="C10" s="3">
+        <v>372</v>
+      </c>
+      <c r="D10">
+        <v>388</v>
+      </c>
+      <c r="E10">
+        <v>373</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>351</v>
-      </c>
-      <c r="C10">
-        <v>341</v>
-      </c>
-      <c r="D10">
-        <v>388</v>
-      </c>
-      <c r="E10">
-        <v>373</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>579</v>
-      </c>
-      <c r="C11">
-        <v>577</v>
+      <c r="B11" s="3">
+        <v>616</v>
+      </c>
+      <c r="C11" s="3">
+        <v>614</v>
       </c>
       <c r="D11">
         <v>623</v>
       </c>
       <c r="E11">
-        <v>614</v>
+        <v>615</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H11">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>275</v>
-      </c>
-      <c r="C12">
-        <v>267</v>
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>302</v>
+      </c>
+      <c r="C12" s="3">
+        <v>293</v>
       </c>
       <c r="D12">
         <v>305</v>
       </c>
       <c r="E12">
-        <v>286</v>
+        <v>294</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H12">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
       <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D16">
-        <f>D3-B3</f>
-        <v>35</v>
+        <f t="shared" ref="D16:D25" si="2">D3-B3</f>
+        <v>5</v>
       </c>
       <c r="E16">
-        <f>E3-C3</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E16:E25" si="3">E3-C3</f>
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:E17" si="2">D4-B4</f>
-        <v>43</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="E17">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18:E18" si="3">D5-B5</f>
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="E18">
         <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:E19" si="4">D6-B6</f>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="E19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="2">
+        <f t="shared" ref="F27:F36" si="4">D16/D30</f>
+        <v>1.3262599469496022E-2</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" ref="G27:G36" si="5">E16/E30</f>
+        <v>4.2735042735042739E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="2">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
+        <v>1.1976047904191617E-2</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="5"/>
+        <v>2.0833333333333333E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="4"/>
+        <v>8.1632653061224497E-3</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="5"/>
+        <v>6.1349693251533744E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>377</v>
+      </c>
+      <c r="E30">
+        <v>234</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="5"/>
+        <v>4.048582995951417E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>501</v>
+      </c>
+      <c r="E31">
+        <v>480</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2797074954296161E-2</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="5"/>
+        <v>2.1645021645021645E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>245</v>
+      </c>
+      <c r="E32">
+        <v>163</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1547344110854504E-2</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="5"/>
+        <v>2.3866348448687352E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>400</v>
+      </c>
+      <c r="E33">
+        <v>247</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="4"/>
+        <v>1.282051282051282E-2</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="5"/>
+        <v>3.2894736842105261E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>547</v>
+      </c>
+      <c r="E34">
+        <v>462</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4245014245014245E-2</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="5"/>
+        <v>2.9325513196480938E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D20">
-        <f t="shared" ref="D20:E20" si="5">D7-B7</f>
-        <v>44</v>
-      </c>
-      <c r="E20">
+      <c r="D35">
+        <v>433</v>
+      </c>
+      <c r="E35">
+        <v>419</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2089810017271158E-2</v>
+      </c>
+      <c r="G35" s="2">
         <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
+        <v>1.7331022530329288E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D21">
-        <f t="shared" ref="D21:E21" si="6">D8-B8</f>
-        <v>36</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ref="D22:E22" si="7">D9-B9</f>
-        <v>34</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
+      <c r="D36">
+        <v>312</v>
+      </c>
+      <c r="E36">
+        <v>304</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="4"/>
+        <v>1.090909090909091E-2</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="5"/>
+        <v>3.7453183520599251E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D23">
-        <f t="shared" ref="D23:E23" si="8">D10-B10</f>
-        <v>37</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
+      <c r="D37">
+        <v>351</v>
+      </c>
+      <c r="E37">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D24">
-        <f t="shared" ref="D24:E24" si="9">D11-B11</f>
-        <v>44</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="9"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25">
-        <f t="shared" ref="D25:E25" si="10">D12-B12</f>
-        <v>30</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="10"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="2">
-        <f>D16/B3</f>
-        <v>9.2838196286472149E-2</v>
-      </c>
-      <c r="E27" s="2">
-        <f>E16/C3</f>
-        <v>8.5470085470085472E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="2">
-        <f t="shared" ref="D28:E28" si="11">D17/B4</f>
-        <v>8.5828343313373259E-2</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="11"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="2">
-        <f t="shared" ref="D29:E29" si="12">D18/B5</f>
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="12"/>
-        <v>0.13496932515337423</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="2">
-        <f t="shared" ref="D30:E30" si="13">D19/B6</f>
-        <v>0.10909090909090909</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="13"/>
-        <v>7.116104868913857E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="2">
-        <f t="shared" ref="D31:E31" si="14">D20/B7</f>
-        <v>8.0438756855575874E-2</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="14"/>
-        <v>7.3593073593073599E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D32" s="2">
-        <f t="shared" ref="D32:E32" si="15">D21/B8</f>
-        <v>8.3140877598152418E-2</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="15"/>
-        <v>7.6372315035799526E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D33" s="2">
-        <f t="shared" ref="D33:E33" si="16">D22/B9</f>
-        <v>0.10897435897435898</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" si="16"/>
-        <v>8.8815789473684209E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D34" s="2">
-        <f t="shared" ref="D34:E34" si="17">D23/B10</f>
-        <v>0.10541310541310542</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="17"/>
-        <v>9.3841642228739003E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="2">
-        <f t="shared" ref="D35:E35" si="18">D24/B11</f>
-        <v>7.599309153713299E-2</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" si="18"/>
-        <v>6.4124783362218371E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="2">
-        <f t="shared" ref="D36:E36" si="19">D25/B12</f>
-        <v>0.10909090909090909</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="19"/>
-        <v>7.116104868913857E-2</v>
+      <c r="D38">
+        <v>579</v>
+      </c>
+      <c r="E38">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>275</v>
+      </c>
+      <c r="E39">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <f>Sheet1!B3+1</f>
+        <v>408</v>
+      </c>
+      <c r="C3" s="3">
+        <f>Sheet1!C3+1</f>
+        <v>254</v>
+      </c>
+      <c r="D3">
+        <v>412</v>
+      </c>
+      <c r="E3">
+        <v>254</v>
+      </c>
+      <c r="F3">
+        <f>B3-C3</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <f>Sheet1!B4+1</f>
+        <v>539</v>
+      </c>
+      <c r="C4" s="3">
+        <f>Sheet1!C4+1</f>
+        <v>517</v>
+      </c>
+      <c r="D4">
+        <v>544</v>
+      </c>
+      <c r="E4">
+        <v>517</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F12" si="0">B4-C4</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <f>Sheet1!B5+1</f>
+        <v>272</v>
+      </c>
+      <c r="C5" s="3">
+        <f>Sheet1!C5+1</f>
+        <v>185</v>
+      </c>
+      <c r="D5">
+        <v>273</v>
+      </c>
+      <c r="E5">
+        <v>185</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <f>Sheet1!B6+1</f>
+        <v>433</v>
+      </c>
+      <c r="C6" s="3">
+        <f>Sheet1!C6+1</f>
+        <v>262</v>
+      </c>
+      <c r="D6">
+        <v>437</v>
+      </c>
+      <c r="E6">
+        <v>262</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <f>Sheet1!B7+1</f>
+        <v>585</v>
+      </c>
+      <c r="C7" s="3">
+        <f>Sheet1!C7+1</f>
+        <v>496</v>
+      </c>
+      <c r="D7">
+        <v>591</v>
+      </c>
+      <c r="E7">
+        <v>496</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <f>Sheet1!B8+1</f>
+        <v>465</v>
+      </c>
+      <c r="C8" s="3">
+        <f>Sheet1!C8+1</f>
+        <v>451</v>
+      </c>
+      <c r="D8">
+        <v>469</v>
+      </c>
+      <c r="E8">
+        <v>451</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <f>Sheet1!B9+1</f>
+        <v>343</v>
+      </c>
+      <c r="C9" s="3">
+        <f>Sheet1!C9+1</f>
+        <v>332</v>
+      </c>
+      <c r="D9">
+        <v>346</v>
+      </c>
+      <c r="E9">
+        <v>332</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <f>Sheet1!B10+1</f>
+        <v>384</v>
+      </c>
+      <c r="C10" s="3">
+        <f>Sheet1!C10+1</f>
+        <v>373</v>
+      </c>
+      <c r="D10">
+        <v>388</v>
+      </c>
+      <c r="E10">
+        <v>373</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <f>Sheet1!B11+1</f>
+        <v>617</v>
+      </c>
+      <c r="C11" s="3">
+        <f>Sheet1!C11+1</f>
+        <v>615</v>
+      </c>
+      <c r="D11">
+        <v>623</v>
+      </c>
+      <c r="E11">
+        <v>615</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <f>Sheet1!B12+1</f>
+        <v>303</v>
+      </c>
+      <c r="C12" s="3">
+        <f>Sheet1!C12+1</f>
+        <v>294</v>
+      </c>
+      <c r="D12">
+        <v>305</v>
+      </c>
+      <c r="E12">
+        <v>294</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>